--- a/data/hotels_by_city/Dallas/Dallas_shard_492.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_492.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="596">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>397madhup</t>
+  </si>
+  <si>
     <t>06/14/2018</t>
   </si>
   <si>
@@ -186,6 +189,9 @@
     <t>Even late evening check-in time the front desk was very receptive, friendly. treated us with smile with no show of tiredness or stress. Breakfast look and tested fresh with good portion. Simple check-out.More</t>
   </si>
   <si>
+    <t>bacrowe</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d11863438-r581341043-La_Quinta_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -207,6 +213,9 @@
     <t>This was our Mother's Day weekend 2018 since our  August 2017 visit.   The overall look, style and cleanliness is still being kept up.   There are NO suites(separate doors)at this location.  Check in was nice, efficient and good customer service from Kevin.I think he misunderstood me when I wanted to upgrade our room choice but we stayed in the room we were given. I asked for a quiet room but Room 203 was Not. You can hear the ice machine in the room, not to mention the LARGE barking dogs across the hall and the paper thin walls where we heard CLEARLY every word from both room on each side of us. Thank goodness our dogs were on their best behavior considering all the chaos around them.  The furniture is still decent. The location of the microwave and fridge being right next to the bathroom is still not a good idea. On our August 2017 visit our room had a glass shower door but room 203 had that NASTY LaQuinta sun striped shower curtain.   Still same Laquinta breakfast.  The parking lot still gets a lot of traffic with the Texas Roadhouse there as well.  There is still NO dog waste station.I bring my dog's waste bags but I still had to walk to the front entrance or the ONE side entrance of the building for a trash can.More</t>
   </si>
   <si>
+    <t>566lyndam</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d11863438-r577554857-La_Quinta_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -237,6 +246,9 @@
     <t>Great Location close to many restaurants and Walmart. Pet Friendly (be careful of sprinklers going off), Housekeeping staff very friendly and accommodating.  Breakfast was great.  Very clean including stairwells and  grounds.More</t>
   </si>
   <si>
+    <t>Mur018</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d11863438-r576566829-La_Quinta_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -255,6 +267,9 @@
     <t>We stayed at this LQ. For two nights. There are pros and cons for us. It’s clean, new, modern, and the employees are nice and friendly. They have a clean nice pool and hot tub. Big shower. Breakfast was adequate. Nice HD. TV. We had two problems while we were here. But they were fixed immediately after calling about them. That was great.        Now the cons. Rooms are small. Air conditioning is weird. It gets hot in the room before it kicks in. Then runs until it’s cold before shutting off. Hot, cold. Hot, cold. Then, you can’t sit at the desk and work or watch TV because the air coming out of the air conditioner will make ice on you. For both of us, the mattress was very uncomfortable. Coffee in the room was very low quality. Low water pressure in the bathroom. So, if I’m looking for a quick one night stay, it’s O.K. More</t>
   </si>
   <si>
+    <t>adaanderson42</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d11863438-r575770259-La_Quinta_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -273,6 +288,9 @@
     <t>We stayed 6 nights.  It was very new and clean and there were a few kinks which the staff fixed immediately when we reported it.  The location was excellent with several good places to eat nearby, Whataburger, for example and a WalMart about two blocks away.  Located on a major freeway so easy to get wherever we were going.  The staff was extremely friendly, made us feel welcome and appreciated.  Kevin, at the front desk, was really great.  The breakfast had a good variety from which to choose.  Loved the Texas shaped waffles.More</t>
   </si>
   <si>
+    <t>robert k</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d11863438-r559248249-La_Quinta_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -300,6 +318,9 @@
     <t>Nice to walk into a room or into a hallway and smell clean, fresh air.  I thought this hotel was brand new and was suprised it had been open around 11 months.  They obviously take the upkeep and maintenance very seriously here.  The usual in room amenities: Iron and ironing board, microwave, coffee maker, hair dryer, mini fridge, wall mounted thermostat with an excellent air conditioner.  3 lamps in the room makes it bright inside to use the workdesk.  The pool area was pristine and neat.  The lobby/dining area was spacious and seated approximately 65, with seating varying from stools, to couches and regular seats as well as a handicapped level table.  Now the negatives of my stay.  We requested a handicapped room almost a month in advance.  I made my reservation for 3 rooms directly with the front desk over the phone, and was assured at the time that a handicapped room would be available.  It was not available when we checked in.  This a pet friendly hotel, which is why we chose this location.  I was suprised when walking my dog that there were no pet stations on the grounds.  I believe most responsible pet owners will clean up after their dog if provided at least little bags.  None available, and consequently, there were doggie landmines every few feet on the grassy property.  There are 3 vacant lots around this hotel, so you could actually walk your dog...Nice to walk into a room or into a hallway and smell clean, fresh air.  I thought this hotel was brand new and was suprised it had been open around 11 months.  They obviously take the upkeep and maintenance very seriously here.  The usual in room amenities: Iron and ironing board, microwave, coffee maker, hair dryer, mini fridge, wall mounted thermostat with an excellent air conditioner.  3 lamps in the room makes it bright inside to use the workdesk.  The pool area was pristine and neat.  The lobby/dining area was spacious and seated approximately 65, with seating varying from stools, to couches and regular seats as well as a handicapped level table.  Now the negatives of my stay.  We requested a handicapped room almost a month in advance.  I made my reservation for 3 rooms directly with the front desk over the phone, and was assured at the time that a handicapped room would be available.  It was not available when we checked in.  This a pet friendly hotel, which is why we chose this location.  I was suprised when walking my dog that there were no pet stations on the grounds.  I believe most responsible pet owners will clean up after their dog if provided at least little bags.  None available, and consequently, there were doggie landmines every few feet on the grassy property.  There are 3 vacant lots around this hotel, so you could actually walk your dog there as well.  The breakfast was a little dissapointing.  The eggs tasted like powdered eggs and the bacon was so thin, you could see through it.  The plasticware was so thin and cheap, you couldn't even cut anything with it.  I wish hotels would spend a few cents extra and use plasticware that is a little sturdier.More</t>
   </si>
   <si>
+    <t>Traveler98765</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d11863438-r558577973-La_Quinta_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -324,6 +345,9 @@
     <t>Best LQ ever! Wow—only 8 months old. So bright and cheerful in the lobby and adjoining breakfast area. So different from older LQs. Beautiful room, bathroom. Good breakfast with lots of variety. Right by tollway but still quiet. Nice pool area &amp; spa. Outdoor patio too. Highly recommended. More</t>
   </si>
   <si>
+    <t>Bonnie J H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d11863438-r557022415-La_Quinta_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -351,6 +375,9 @@
     <t>We chose this hotel for the second time this year.  Five nights, some of which we were able to get a nice discount with La Quinta points.  Everything about the hotel was excellent. Our guests appreciated the pool, exercise facilities, breakfast and room accommodations.More</t>
   </si>
   <si>
+    <t>Debbi J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d11863438-r556566659-La_Quinta_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -369,6 +396,9 @@
     <t>Friendly &amp; knowledgeable staff. Good breakfast, warm &amp; staff kept all foods well supplied. Indoor pool &amp; spa. Well lit parking (important for 2 women &amp; Child to fell safe). Clean rooms. Everything made our medical trip easier.More</t>
   </si>
   <si>
+    <t>dsheray</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d11863438-r556388439-La_Quinta_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -384,6 +414,9 @@
     <t>More</t>
   </si>
   <si>
+    <t>DogMamaFW</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d11863438-r556283578-La_Quinta_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -402,6 +435,9 @@
     <t>This hotel is a pretty good bargain for the price. It was the cheapest one I could find in the area. However, cheaper comes with a few less than stellar options. The walls are pretty thin so I could hear my neighbor’s TV all night. Somebody was drag-racing in the parking lot at night. And the breakfast was only so-so... a tad bit below what my expectations were.  I’ve stayed at other La Quintas before, and I feel like my experience at those was better than this one. I did not have a bad experience here; it was just below what my expectations were. More</t>
   </si>
   <si>
+    <t>jimmyh821</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d11863438-r555067144-La_Quinta_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -426,6 +462,9 @@
     <t>I met my children in Dallas for my daughter’s Drs. appointment. It was a quick trip but I chose this location because of it was near the Drs. Office and it was similar to the new location in Amarillo which I recently stayed.  The day we checked in, the young man at the desk made my normal unpleasant experience with Returns more tolerable. He was a true gentleman, courteous yet professional and very understanding of our experiences with Returns. The hotel was clean and our suite was clean, roomy and comfortable. More</t>
   </si>
   <si>
+    <t>R9680YYdanad</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d11863438-r554331864-La_Quinta_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -444,6 +483,9 @@
     <t>I appreciated the clean room, very important when traveling and I appreciated the aroma when I entered the room upon arriving.  It may have been the cleaners they used in the bathroom, but nonetheless, nothing is more refreshing than to walk into a room and see the cleanliness and smell the fresh aroma of your room for the night!More</t>
   </si>
   <si>
+    <t>originalladyleo4life</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d11863438-r553551128-La_Quinta_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -468,6 +510,9 @@
     <t>This property is priced right, indoor pool, clean, modern decor, located near the freeway, different attractions, variety of restaurants and shopping. Suburb outside of Dallas/Frisco. I will keep this on my list for future visits for sure. More</t>
   </si>
   <si>
+    <t>Angela W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d11863438-r551893076-La_Quinta_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -495,6 +540,9 @@
     <t>We stayed in the executive king room. It includes a soda bed, with attached chaise. The room itself has plenty of space. The bathroom is spacious, too. The hotel has plenty of space for walking dogs, and it's nice they don't charge extra for pets. The staff are nice and welcoming. The rooms and common areas are kept very clean. More</t>
   </si>
   <si>
+    <t>Z7273VLmichaelb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d11863438-r550345281-La_Quinta_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -513,6 +561,9 @@
     <t>Wonderful hotel with great facilities. Pool with spa indoors was nice being as cold as it was. Big exercise room and huge lobby/eating area for breakfast or just to sit and relax while sipping your coffee and reading. Quiet facilities even with pets allowed. Breakfast is one of the best I've seen in these hotels; sausage and/or bacon with scrambled eggs and many other choices.More</t>
   </si>
   <si>
+    <t>Mulligan R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d11863438-r549369856-La_Quinta_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -528,6 +579,9 @@
     <t>The property was great.   The inside of the hotel was clean, new, neat, smelled fresh.  I would stay here again.   However, there were a few things that could have been better.1. Went to breakfast, coffee pots were all empty.   Had to find the service person to brew some coffee.   This happened more than once.2. Same thing for eggs.  Probably no eggs at least three different mornings.3. Was expecting gravy for the bisquits, went to the service person.  They couldn't open the can (yes, saugage gravy comes in a gallon can!), as they didn't have a can opener that worked.    I was able to get the opener working enough to open the can, and I understand a can opener was nordered.4. We had our two dogs with us.   There are great areas to have the dogs potty, however, people aren't cleaning up after their pets.   Very frustrating to step in dog poo at 10pm when walking your own dog.Overall, was  good stay.  I would chalk the inattention in the kitchen to the time being around Christmas.More</t>
   </si>
   <si>
+    <t>W3882ISgaryb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d11863438-r549421959-La_Quinta_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -543,6 +597,9 @@
     <t>The hotel was well-located for our needs and featured a nice, comped breakfast.  Our rooms were okay but lacked much water pressure in the shower.  The wall-mounted room thermostat was finicky and did not maintain the room at a comfortable temperature.  We returned to our room Sat. night and found a bare mattress that we had to make before retiring.  That is entirely unacceptable; a nice hotel should have plenty bedding on hand and should never ask a guest to make the bed after washing the sheets!  That was TERRIBLE service La Quinta.  Overall, I'd give the hotel a bit better than average rating for this price level.  Correct a few problems and it will be a great place to stay for us.More</t>
   </si>
   <si>
+    <t>Arthur J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d11863438-r548463992-La_Quinta_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -567,6 +624,9 @@
     <t>We spent three nights here for a family visit. Our room was quiet, clean and very comfortable. We opted for a first floor handicapped room. The room was at the end of the hall next to an exterior door. The bathroom was very large with a walk in shower that contains a seat. The only issue was how the shower drains: mainly on to the bathroom floor. There is a drain in the shower itself as well as in the bathroom floor. This is a cautionary comment as a person not so sure footed could slip although it was not an issue for us. The only other negative was on that Saturday and Sunday morning the breakfast bar could have been replenished more quickly. This is a convenient, quiet, very clean and comfortable place to stay.More</t>
   </si>
   <si>
+    <t>michelle050163</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d11863438-r547712572-La_Quinta_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -591,6 +651,9 @@
     <t>Check in was fast, front desk/all staff was very pleasant..when I got to my room it smelled very lovely and was extremely nice/clean! Bed was very comfortable and room was quiet. I Will stay again and recommend this hotel! Overall a wonderful hotel and convenient location!More</t>
   </si>
   <si>
+    <t>Lillian D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d11863438-r545191842-La_Quinta_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -618,6 +681,9 @@
     <t>My large dog and I stayed at The Colony La Quinta and found it to be outstanding in all aspects.  Highly recommend this spotlessly clean hotel to any traveler. It is a blessing to have such a wonderful hotel be pet friendly.More</t>
   </si>
   <si>
+    <t>321heribertor</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d11863438-r544720416-La_Quinta_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -636,6 +702,9 @@
     <t>My family and I had a very good stay at this hotel. Extremely clean, organized, and modern. The hotel staff was extremely helpful, and the fact that they are pet friendly made our stay much easier than expected!More</t>
   </si>
   <si>
+    <t>true_blue_ku</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d11863438-r544618692-La_Quinta_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -657,6 +726,9 @@
     <t>Loved the room and the morning staff was exceptional; HOWEVER, had a horrible night trying to sleep because of the consistent slamming of doors, ice maker noise and some lady next door standing in the hall yelling "let me in" to whoever was in that room. I was woken up at least 4 times and actually thought that same lady was going to start pounding on our door. we probably got, at most. 3 hours sleep so it wasn't a great experience. I did talk to the morning staff and she was super apologetic, which was greatly appreciated. I told her that perhaps the company should add a couple of more layers of sheetrock on the walls to deter the noise from the other inconsiderate guests! More</t>
   </si>
   <si>
+    <t>divegoddess5521</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d11863438-r544241028-La_Quinta_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -675,6 +747,9 @@
     <t>Keep us Great work.  We need a hotel to accommodate our two 7 pound dogs and this facility did a great job.  Thank you La Quinta The Colony Texas.  We will stay again when visiting family in Dallas.  Nice indoor pool.More</t>
   </si>
   <si>
+    <t>BethNDavid</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d11863438-r544079633-La_Quinta_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -693,6 +768,9 @@
     <t>How awesome to enjoy a hotel stay with your pets!  They are family too!  Our room was clean and our pets enjoyed being with us during our trip..  Thanks for another great stay LaQuinta! We will definitely stay at your facility again!More</t>
   </si>
   <si>
+    <t>Matt H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d11863438-r542564539-La_Quinta_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -717,6 +795,9 @@
     <t>Very clean and new La Quinta.  Rooms were great and quiet and had a universal charger for our phones.  Breakfast was good and no issues with parking, plenty of room.  Very had a very enjoyable stay and I will return.More</t>
   </si>
   <si>
+    <t>John H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d11863438-r542362868-La_Quinta_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -741,6 +822,9 @@
     <t>Best Price in the area for what you recieve. Always enjoy LaQuinta when they are available. The Texas shaped Waffles are my favorite. Across the board the rooms at LQ are consistently well maintained.More</t>
   </si>
   <si>
+    <t>D9347SZdavidt</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d11863438-r541055436-La_Quinta_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -765,6 +849,9 @@
     <t>Everything as shown on their web site, extremely modern and excellent staff. Was in Dallas for a Wedding and a lot family members were there as well and we all used the meeting room on site for a gathering place which was great.More</t>
   </si>
   <si>
+    <t>L3906TIdavidd</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d11863438-r540841025-La_Quinta_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -783,6 +870,9 @@
     <t>first time visiting TX and everyone in hotel was friendly, helpful, and the room was clean, comfy and quiet.  brand new hotel conveniently located for us while visiting family members. we would return any time visiting TXMore</t>
   </si>
   <si>
+    <t>Marsha G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d11863438-r540167630-La_Quinta_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -798,6 +888,9 @@
     <t>Second time to stay at this hotel and was not disappointed. Love the front desk people and the hotel is very clean. It is convenient to restaurants and shops. Good assortment of breakfast. We will stay there again! More</t>
   </si>
   <si>
+    <t>Jeffrey S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d11863438-r540331934-La_Quinta_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -813,6 +906,9 @@
     <t>After a long flight, I arrived at this La Quinta in The Colony to find a beautiful, modern hotel. It is very clean and well staffed with a pretty good breakfast. The beds were very comfortable and I loved the big shower area.More</t>
   </si>
   <si>
+    <t>Dave P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d11863438-r538908806-La_Quinta_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -828,6 +924,9 @@
     <t>Responded November 7, 2017</t>
   </si>
   <si>
+    <t>brittany a</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d11863438-r537551709-La_Quinta_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -849,6 +948,9 @@
     <t>This La Quinta was a great hotel - have stayed at many La Quinta's and this was by far the best!! Great stay, the hotel is beautiful, VERY clean, the staff was nice staff and it was a convenient location. Will definitely be back!More</t>
   </si>
   <si>
+    <t>W1708EIwilliamp</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d11863438-r536082194-La_Quinta_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -864,6 +966,9 @@
     <t>The toilet in the handicap room are 6 inches lower than a standard toilet making it very hard to use the toilet.  It should be 6 inches taller than a standard toilet.  This has not been corrected as of this posting.</t>
   </si>
   <si>
+    <t>tbpbsb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d11863438-r534694306-La_Quinta_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -882,6 +987,9 @@
     <t>Responded October 23, 2017</t>
   </si>
   <si>
+    <t>loganl78</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d11863438-r533601550-La_Quinta_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -897,6 +1005,9 @@
     <t>Responded October 20, 2017</t>
   </si>
   <si>
+    <t>49candyc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d11863438-r533641591-La_Quinta_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -918,6 +1029,9 @@
     <t>This LaQuinta was beautiful, easy to find, and was perfect for trying to find a place to live near the Colony, as it was close to everything in the way of shopping, apartments, and tollways.  It was a great place to rest, with all the amenities needed, along with comfortable beds in a spacious room.More</t>
   </si>
   <si>
+    <t>miss u</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d11863438-r532190366-La_Quinta_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -942,6 +1056,9 @@
     <t>I just recently stayed at this property October 6-9. I arrived in Dallas early, checking in was a breeze... i arrived to hotel early about 8:30am Friday morning &amp; it wasn't quite time for check in however i was allowed to check in early. While they got a room ready for me... the guy that checked me directed me to their coffee, juice and breakfast. I had biscuit, gravy, sausage, and eggs. By the time i finished eating my room was ready for me. It was awesome that i was allowed to check in early. Which made it very easy for me to do business. I stayed in room 402... room was very clean &amp; had no issues the entire stay. Everyone on staff was very friendly. Great job please see pictures below... Sign Ms JohnsonMore</t>
   </si>
   <si>
+    <t>aissasalazar</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d11863438-r531373935-La_Quinta_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -957,6 +1074,9 @@
     <t>Responded October 10, 2017</t>
   </si>
   <si>
+    <t>katyflower</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d11863438-r530877364-La_Quinta_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -975,6 +1095,9 @@
     <t>This hotel is nice and clean and we do so appreciate a dog friendly complex. We will return. The only complaint I have was the woman setting breakfast out was very snippy and rude when I told her the biscuits were still frozen in the middle. She never had the buffet properly stocked and full.  If there were eggs there was no bacon. If there were biscuits and gravy the biscuits were frozen in the middle. I took one and microwaved it in the room. Someone needs to educate her on food services and customer service.  More</t>
   </si>
   <si>
+    <t>Ryan M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d11863438-r527974498-La_Quinta_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -1002,6 +1125,9 @@
     <t>We stayed for 3 nights at the La Quinta Hotel in Frisco, TX. It must have been a fairly new hotel as everything was in great shape.   Check-in took a little longer than expected, it may have been because we booked though Priceline, but the front desk person was polite and helpful.   One thing that stood out was the number of dogs we saw at the hotel. It didn't pose any problems for us, but I do wonder if that will affect the cleanliness/quality of the rooms down the road.   Overall, for the money, this was a great value for us. At this point I would stay again.More</t>
   </si>
   <si>
+    <t>daniellA4083FH</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d11863438-r527431415-La_Quinta_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -1011,6 +1137,9 @@
     <t>09/25/2017</t>
   </si>
   <si>
+    <t>Dennis M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d11863438-r524970672-La_Quinta_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -1035,6 +1164,9 @@
     <t>My wife and I are retired and as we travel around the US we always try to stay at a local La Quinta.  When we arrived at the La Quinta in Plano TX The Colony we were pleasantly surprised at the new LQ look.  It was beautiful. We had an executive suite for our two night stay.  The room was new, modern, exceptionally clean and exceptionally comfortable.  Their commitment to total satisfaction is also exceptional.  The first night of our stay there was a slight issue with our room. I called the front desk and immediately they moved us to a different suite on the same floor. If you are planning a stay in the Plano/Colonies area of N. Dallas, I highly recommend this hotel.  You will be pleased with you stay!More</t>
   </si>
   <si>
+    <t>William D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d11863438-r523936768-La_Quinta_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -1059,6 +1191,9 @@
     <t>Entering the hotel. Catching the warm modern home feeling right off the bat. Entering your room was another warm welcome and a nice modern interior.  Beds were comfy and over all, it was a nice stay at this la quinta hotel.More</t>
   </si>
   <si>
+    <t>yalumw</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d11863438-r523654140-La_Quinta_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -1077,6 +1212,9 @@
     <t>we arrived late around 9pm and 3 walk in customer showed up right in front of us so we had to wait about 15mins or so and it was a hassle to check in b/c we had 2 dogs and our 2yr old that's grumpy b/c she's sleepy, we had reservation and was ready for bed they could have had someone else get us our key first before getting to the walk in customers.  over all the hotel was clean and friendly also have a small gym and indoor pool which was very nice...breakfast offering was decent, wish they had sausages though or more fruit, refill speed was a bit slow.More</t>
   </si>
   <si>
+    <t>Crazycypha</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d11863438-r522853390-La_Quinta_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -1104,6 +1242,9 @@
     <t>This hotel was very clean and new.  Staff was very friendly and very tentative. Michelle at the front desk was very helpful and nice.  Housekeeping kept the rooms very clean and odorless. Would recomendMore</t>
   </si>
   <si>
+    <t>Victoria D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d11863438-r517682735-La_Quinta_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -1129,6 +1270,9 @@
   </si>
   <si>
     <t>This hotel is amazing, very clean and comfortable rooms, patient and nice staff, close to restaurants and stores, breakfast is good, the pool and fitness center are excellent, worth every penny, can't complain about itMore</t>
+  </si>
+  <si>
+    <t>lonniem189</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d11863438-r517275610-La_Quinta_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
@@ -1179,6 +1323,9 @@
 Last, I would suggest istalling a doggie waste station with bags because there was dog poop everywhere. I bring my dog's waste bags but I had to walk all around the building for...Our stay 8/19/2017-8/21/2017 to visit my daughter. We usually stay at a closer location to her but decided to try this new location.It turned out to be the BEST LaQuinta so far and should be the STANDARD for ALL LaQuinta hotels to take notes and implement.First, The ambiance is chic and boutique style from the glass doors,set up and overall decor. Second, the rooms and furniture is nice, new and clean. The location of the microwave and fridge is right next to the bathroom door.( Who thought that was a good idea?)The bathroom is chic as well but the glass shower door(YES,GLASS shower doors and not that NASTY sun striped shower curtain LaQuinta is know for) opens at the front where you turn on the shower and not the rear. Not a problem for me but anyone over 5'7. Third,  The food setup is seperated and not in the dining area. My husband really enjoyed the breakfast.that offered more choices, sausage one day, bacon the next, scrambled eggs, real and instant oatmeal, toast, bagels, hot waflles, biscuits and gravy,tea, coffee, lemon water(with real lemons) yogurt, apples, bananas, oranges.This LaQuinta parking lo's traffic can get busy since there is a Texas Roadhouse there as well.Last, I would suggest istalling a doggie waste station with bags because there was dog poop everywhere. I bring my dog's waste bags but I had to walk all around the building for a trash can.More</t>
   </si>
   <si>
+    <t>Chris O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d11863438-r513702250-La_Quinta_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -1203,6 +1350,9 @@
     <t>This new La Quinta is refreshing and comfortable. Nice beds, clean rooms, great service! We were attending a special family event. We enjoyed some time playing in the pool with our grandchildren. We were only there for 3 nights- wish we could have stayed longer. More</t>
   </si>
   <si>
+    <t>DallasLeroy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d11863438-r508242264-La_Quinta_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -1251,6 +1401,9 @@
     <t>We chose La Quinta Inn as a gift to visitors because we had no space for them in our home. We made a wise choice, based on our personal experiences with La Quinta. We will probably do it another time or we will make a recommendation for La Quinta Inn in The Colony in Plano, Texas.More</t>
   </si>
   <si>
+    <t>Gregory W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d11863438-r506622503-La_Quinta_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -1275,6 +1428,9 @@
     <t>This new hotel has absolutely fantastic staff! They are all so friendly and helpful. The hotel is super-clean and so attractive, too. The housekeeping is phenomenal throughout the facility. The hotel rooms are refreshingly quiet; although it is near the highway, and we were in a room facing it, we never heard it, and only heard others in the hotel when we were by our door.  There is always fresh and delicious coffee in the lobby, along with a variety of flavored creamers.  They are pet-friendly, and there are plenty of areas around the hotel to walk your dog.  The elevators are roomy, and we never had to wait long for one. The rooms are large, comfortable, and well-appointed. We even loved the luggage carts; they have built-in automatic brakes so that they don't roll away when you are loading and unloading, which is so convenient. They have in-house guest laundry machines, and they do a great job.  The pool and hot tub are nice and clean.  The breakfast was usual fare, scrambled eggs, bacon, sausage patties, biscuits and sausage gravy, yogurt, cereals, oatmeal, waffles, toast, juices, etc., all good and fresh and all well-supplied throughout the whole breakfast time period, even though the hotel was pretty full.  The location is easy to find, and there are a lot of nearby restaurants, shops, and attractions.  All in all, an excellent hotel. We will definitely stay there again.More</t>
   </si>
   <si>
+    <t>Nmckbn</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d11863438-r506317764-La_Quinta_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -1293,6 +1449,9 @@
     <t>This was our second stay at this location and it was just as wonderful this time as the first.  The hotel is beautiful and in a great safe location.  The staff is so nice and very accommodating, not just the front desk staff but all of the staff.  The rooms are great and the bed and bedding is wonderful.  The whole hotel always smells so clean which isn't something you see at most hotels.  They are always so wonderful with our kids and our dog.  The breakfast is probably the best free breakfast we have had at hotels, great fresh options and different each day.  Cannot recommend this hotel enough if you are in the area, especially if you have pets!More</t>
   </si>
   <si>
+    <t>kabvan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d11863438-r505108715-La_Quinta_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -1308,6 +1467,9 @@
     <t>Responded July 25, 2017</t>
   </si>
   <si>
+    <t>ejs22</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d11863438-r492645550-La_Quinta_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -1335,6 +1497,9 @@
     <t>New place to stay in The Colony Texas! Great location super clean and very modern accomodations! Great Value for the area! Easy to find for someone new to this area! Helpful staff with great smiles! The rooms are comfortable and are very upscale in design. The lobby is also very inviting and super clean!More</t>
   </si>
   <si>
+    <t>chadis1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d11863438-r492445591-La_Quinta_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -1347,6 +1512,9 @@
     <t>Responded June 15, 2017</t>
   </si>
   <si>
+    <t>GoldNuggets</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d11863438-r492645443-La_Quinta_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -1359,6 +1527,9 @@
     <t>This is a brand new hotel. It has a few oddities. Otherwise great place to stay. It has a huge front lobby, good/fast internet, parking lot with lots of spaces, new beds and carpet, and quick and modern elevators. There is a Texas Steakhouse right next door and other amenities that are nearby. I will stay here again.</t>
   </si>
   <si>
+    <t>William V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d11863438-r491659597-La_Quinta_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -1383,6 +1554,9 @@
     <t>Hotel is new and is not ready for prime time.  Hotel staff unfriendly perhaps they were not familiar with check in process.  Breakfast options very limited and poor.  Note that this hotel is very close to highway so highway noise on one side of the hotel is noticeable, but is lessened somewhat by the A/C unit that is running in the room.More</t>
   </si>
   <si>
+    <t>Joseph L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d11863438-r491658520-La_Quinta_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -1401,6 +1575,9 @@
     <t>May 2017</t>
   </si>
   <si>
+    <t>huongle246</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d11863438-r488196971-La_Quinta_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -1410,6 +1587,9 @@
     <t>05/27/2017</t>
   </si>
   <si>
+    <t>Tonya G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d11863438-r491658246-La_Quinta_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -1425,6 +1605,9 @@
     <t>Enjoyed this hotel and how central it is to all of the shops, restaurants and activities in The Colony.  For the price, it rocked with free breakfast, free Wi-Fi and beautiful décor.    My teenage daughter and friends loved the indoor pool and the location, too.  Ample parking and fast elevators, made this stay very relaxing!</t>
   </si>
   <si>
+    <t>Christi P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d11863438-r491659574-La_Quinta_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -1440,6 +1623,9 @@
     <t>This was a very nice hotel.   It looks like it is fairly new, with updated decor.  It is also very clean.  The location is great.  Lots of restaurants close by.  We enjoyed our stay and would definitely stay here again.</t>
   </si>
   <si>
+    <t>Leonard S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d11863438-r491659510-La_Quinta_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -1455,6 +1641,9 @@
     <t>Super gorgeous hotel with indoor pool! Large and upscale styled hotel with the friendliness of a small town. Treated great by all staff. Very accommodating with small dogs! Close to highway and yummy restaurant next door.</t>
   </si>
   <si>
+    <t>George W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d11863438-r491659119-La_Quinta_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -1470,6 +1659,9 @@
     <t>Great hotel for the chain. Everything is new and shiny. Staff appear to do a good job keeping the rooms and common areas clean. Breakfast included eggs and bacon.  Price point is a little higher, but so is the quality of the accommodation.</t>
   </si>
   <si>
+    <t>700frankies</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d11863438-r491659362-La_Quinta_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -1488,6 +1680,9 @@
     <t>No place in shower to put shampoo, soap etc. Sink cracked. When I checked in could not get two keys, they were running low on cards.  No sugar free syrup for waffles. Sausage gravy thin as water!! Biscuits were good.More</t>
   </si>
   <si>
+    <t>Tawny78</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d11863438-r478085099-La_Quinta_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -1500,6 +1695,9 @@
     <t>April 2017</t>
   </si>
   <si>
+    <t>A_Govt_Worker</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d11863438-r491658082-La_Quinta_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -1515,6 +1713,9 @@
     <t>We stayed for a couple of days.  The room was quiet and well-maintained and the bed quite comfortable.  Scrambled eggs and link sausage in addition to La Quinta's regular breakfast fare.  The milk smelled a little sour so we bought our own at a nearby convenience store.    Refrigerators don't have a freezer compartment but it was not a tremendous inconvenience on this particular trip.</t>
   </si>
   <si>
+    <t>fizanh2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d11863438-r491657991-La_Quinta_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -1527,6 +1728,9 @@
     <t>Checked out on 3-31-17, showing as checked out on 4-01-17. Other than that the Hotel is practically brand new, so it is very clean and fresh looking. Has a very contemporary feel to it. It is very up to date, and not like older Hotels.</t>
   </si>
   <si>
+    <t>S1218VUcynthias</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d11863438-r491658006-La_Quinta_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -1542,6 +1746,9 @@
     <t>We stayed here because they had an indoor pool so we could take our grandson swimming.  The pool and hot tub were nice except the temperature of the pool was a little cool.  Breakfast was good!  Seating area was great!</t>
   </si>
   <si>
+    <t>Kheri S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d11863438-r468994371-La_Quinta_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -1560,6 +1767,9 @@
     <t>March 2017</t>
   </si>
   <si>
+    <t>Sandra M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d11863438-r491659398-La_Quinta_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -1572,6 +1782,9 @@
     <t>Seems like they are still trying to figure things out.. if they get things going and get some customer service training, they will do well at this location. When I was there they had some issues with things not working as well as cleanliness from the construction I was surprised since it was more than a week after opening</t>
   </si>
   <si>
+    <t>Texasbuzo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d11863438-r464877322-La_Quinta_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -1585,6 +1798,9 @@
   </si>
   <si>
     <t>Great location close to plenty of restaurants and shopping. Brand-new very clean hotel. Nice breakfast area and in door pool.  Would Definitely stay there again.  Hope they keep it looking as nice as it does now being brand-new.</t>
+  </si>
+  <si>
+    <t>Vin D</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d11863438-r464177793-La_Quinta_Inn_Suites_Dallas_Plano_The_Colony-The_Colony_Texas.html</t>
@@ -2104,43 +2320,47 @@
       <c r="A2" t="n">
         <v>65650</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>164640</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="n">
         <v>5</v>
@@ -2162,56 +2382,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="X2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>65650</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>51908</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M3" t="n">
         <v>4</v>
       </c>
       <c r="N3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P3" t="n">
         <v>4</v>
@@ -2233,56 +2457,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="X3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>65650</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>164641</v>
+      </c>
+      <c r="C4" t="s">
+        <v>65</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="O4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P4" t="n">
         <v>5</v>
@@ -2304,56 +2532,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="X4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Y4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>65650</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>123920</v>
+      </c>
+      <c r="C5" t="s">
+        <v>76</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="J5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="L5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="M5" t="n">
         <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="O5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -2365,56 +2597,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="X5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Y5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>65650</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>164642</v>
+      </c>
+      <c r="C6" t="s">
+        <v>83</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="J6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="K6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="L6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="O6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P6" t="n">
         <v>5</v>
@@ -2436,56 +2672,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="X6" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Y6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>65650</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>16679</v>
+      </c>
+      <c r="C7" t="s">
+        <v>90</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="J7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="K7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="L7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="O7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P7" t="n">
         <v>4</v>
@@ -2503,56 +2743,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="X7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="Y7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>65650</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>164643</v>
+      </c>
+      <c r="C8" t="s">
+        <v>100</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="J8" t="s">
+        <v>103</v>
+      </c>
+      <c r="K8" t="s">
+        <v>104</v>
+      </c>
+      <c r="L8" t="s">
+        <v>105</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
         <v>96</v>
       </c>
-      <c r="K8" t="s">
-        <v>97</v>
-      </c>
-      <c r="L8" t="s">
-        <v>98</v>
-      </c>
-      <c r="M8" t="n">
-        <v>5</v>
-      </c>
-      <c r="N8" t="s">
-        <v>90</v>
-      </c>
       <c r="O8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -2564,56 +2808,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="X8" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="Y8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>65650</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>164644</v>
+      </c>
+      <c r="C9" t="s">
+        <v>109</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="J9" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="K9" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="L9" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="O9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P9" t="n">
         <v>5</v>
@@ -2635,56 +2883,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="X9" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="Y9" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>65650</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>164645</v>
+      </c>
+      <c r="C10" t="s">
+        <v>119</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="J10" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="K10" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="L10" t="s">
+        <v>124</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
         <v>115</v>
       </c>
-      <c r="M10" t="n">
-        <v>5</v>
-      </c>
-      <c r="N10" t="s">
-        <v>107</v>
-      </c>
       <c r="O10" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P10" t="n">
         <v>5</v>
@@ -2706,54 +2958,58 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="X10" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="Y10" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>65650</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>164646</v>
+      </c>
+      <c r="C11" t="s">
+        <v>126</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="J11" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="K11" t="s"/>
       <c r="L11" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="O11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P11" t="n">
         <v>5</v>
@@ -2775,56 +3031,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="X11" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="Y11" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>65650</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>164647</v>
+      </c>
+      <c r="C12" t="s">
+        <v>132</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="J12" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="K12" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="L12" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="M12" t="n">
         <v>3</v>
       </c>
       <c r="N12" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="O12" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="P12" t="n">
         <v>4</v>
@@ -2846,56 +3106,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="X12" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="Y12" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>65650</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>164648</v>
+      </c>
+      <c r="C13" t="s">
+        <v>139</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="J13" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="K13" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="L13" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="O13" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P13" t="n">
         <v>5</v>
@@ -2917,56 +3181,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="X13" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="Y13" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>65650</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>164649</v>
+      </c>
+      <c r="C14" t="s">
+        <v>148</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="J14" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="K14" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="L14" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="M14" t="n">
         <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="O14" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P14" t="n">
         <v>4</v>
@@ -2988,56 +3256,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="X14" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="Y14" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>65650</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>164650</v>
+      </c>
+      <c r="C15" t="s">
+        <v>155</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="J15" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="K15" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="L15" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="O15" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P15" t="n">
         <v>5</v>
@@ -3059,56 +3331,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="X15" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="Y15" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>65650</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>4166</v>
+      </c>
+      <c r="C16" t="s">
+        <v>164</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="J16" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="K16" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="L16" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="O16" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P16" t="n">
         <v>4</v>
@@ -3130,56 +3406,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="X16" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="Y16" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>65650</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>164651</v>
+      </c>
+      <c r="C17" t="s">
+        <v>174</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="J17" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="K17" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="L17" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="O17" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="P17" t="n">
         <v>5</v>
@@ -3201,56 +3481,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="X17" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="Y17" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>65650</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>164652</v>
+      </c>
+      <c r="C18" t="s">
+        <v>181</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="J18" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="K18" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="L18" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="M18" t="n">
         <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="O18" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P18" t="n">
         <v>5</v>
@@ -3268,56 +3552,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="X18" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="Y18" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>65650</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>164653</v>
+      </c>
+      <c r="C19" t="s">
+        <v>187</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
+        <v>188</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>189</v>
+      </c>
+      <c r="J19" t="s">
+        <v>184</v>
+      </c>
+      <c r="K19" t="s">
+        <v>190</v>
+      </c>
+      <c r="L19" t="s">
+        <v>191</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
         <v>170</v>
       </c>
-      <c r="G19" t="s">
-        <v>45</v>
-      </c>
-      <c r="H19" t="s">
-        <v>46</v>
-      </c>
-      <c r="I19" t="s">
-        <v>171</v>
-      </c>
-      <c r="J19" t="s">
-        <v>167</v>
-      </c>
-      <c r="K19" t="s">
-        <v>172</v>
-      </c>
-      <c r="L19" t="s">
-        <v>173</v>
-      </c>
-      <c r="M19" t="n">
-        <v>4</v>
-      </c>
-      <c r="N19" t="s">
-        <v>155</v>
-      </c>
       <c r="O19" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P19" t="n">
         <v>4</v>
@@ -3339,56 +3627,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="X19" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="Y19" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>65650</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>10057</v>
+      </c>
+      <c r="C20" t="s">
+        <v>193</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="J20" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="K20" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="L20" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="O20" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -3400,56 +3692,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="X20" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="Y20" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>65650</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>164654</v>
+      </c>
+      <c r="C21" t="s">
+        <v>202</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="J21" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="K21" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="L21" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="O21" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -3467,56 +3763,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="X21" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="Y21" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>65650</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>20257</v>
+      </c>
+      <c r="C22" t="s">
+        <v>211</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="G22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="J22" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="K22" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="L22" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="O22" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="P22" t="n">
         <v>5</v>
@@ -3538,56 +3838,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="X22" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
       <c r="Y22" t="s">
-        <v>199</v>
+        <v>220</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>65650</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>164655</v>
+      </c>
+      <c r="C23" t="s">
+        <v>221</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>200</v>
+        <v>222</v>
       </c>
       <c r="G23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>201</v>
+        <v>223</v>
       </c>
       <c r="J23" t="s">
-        <v>202</v>
+        <v>224</v>
       </c>
       <c r="K23" t="s">
-        <v>203</v>
+        <v>225</v>
       </c>
       <c r="L23" t="s">
-        <v>204</v>
+        <v>226</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="O23" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P23" t="n">
         <v>5</v>
@@ -3609,56 +3913,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="X23" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
       <c r="Y23" t="s">
-        <v>205</v>
+        <v>227</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>65650</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>164656</v>
+      </c>
+      <c r="C24" t="s">
+        <v>228</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>206</v>
+        <v>229</v>
       </c>
       <c r="G24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>207</v>
+        <v>230</v>
       </c>
       <c r="J24" t="s">
-        <v>202</v>
+        <v>224</v>
       </c>
       <c r="K24" t="s">
-        <v>208</v>
+        <v>231</v>
       </c>
       <c r="L24" t="s">
-        <v>209</v>
+        <v>232</v>
       </c>
       <c r="M24" t="n">
         <v>3</v>
       </c>
       <c r="N24" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="O24" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P24" t="n">
         <v>4</v>
@@ -3680,56 +3988,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>210</v>
+        <v>233</v>
       </c>
       <c r="X24" t="s">
-        <v>211</v>
+        <v>234</v>
       </c>
       <c r="Y24" t="s">
-        <v>212</v>
+        <v>235</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>65650</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>164657</v>
+      </c>
+      <c r="C25" t="s">
+        <v>236</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>213</v>
+        <v>237</v>
       </c>
       <c r="G25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>214</v>
+        <v>238</v>
       </c>
       <c r="J25" t="s">
-        <v>215</v>
+        <v>239</v>
       </c>
       <c r="K25" t="s">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="L25" t="s">
+        <v>241</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
         <v>217</v>
       </c>
-      <c r="M25" t="n">
-        <v>5</v>
-      </c>
-      <c r="N25" t="s">
-        <v>196</v>
-      </c>
       <c r="O25" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P25" t="n">
         <v>5</v>
@@ -3751,56 +4063,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="X25" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
       <c r="Y25" t="s">
-        <v>218</v>
+        <v>242</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>65650</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>164658</v>
+      </c>
+      <c r="C26" t="s">
+        <v>243</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>219</v>
+        <v>244</v>
       </c>
       <c r="G26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>220</v>
+        <v>245</v>
       </c>
       <c r="J26" t="s">
-        <v>221</v>
+        <v>246</v>
       </c>
       <c r="K26" t="s">
-        <v>222</v>
+        <v>247</v>
       </c>
       <c r="L26" t="s">
-        <v>223</v>
+        <v>248</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="O26" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P26" t="n">
         <v>5</v>
@@ -3822,56 +4138,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="X26" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
       <c r="Y26" t="s">
-        <v>224</v>
+        <v>249</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>65650</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>19997</v>
+      </c>
+      <c r="C27" t="s">
+        <v>250</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>225</v>
+        <v>251</v>
       </c>
       <c r="G27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>226</v>
+        <v>252</v>
       </c>
       <c r="J27" t="s">
-        <v>227</v>
+        <v>253</v>
       </c>
       <c r="K27" t="s">
-        <v>228</v>
+        <v>254</v>
       </c>
       <c r="L27" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="O27" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P27" t="n">
         <v>5</v>
@@ -3893,56 +4213,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="X27" t="s">
-        <v>231</v>
+        <v>257</v>
       </c>
       <c r="Y27" t="s">
-        <v>232</v>
+        <v>258</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>65650</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>3346</v>
+      </c>
+      <c r="C28" t="s">
+        <v>259</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>233</v>
+        <v>260</v>
       </c>
       <c r="G28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>234</v>
+        <v>261</v>
       </c>
       <c r="J28" t="s">
-        <v>235</v>
+        <v>262</v>
       </c>
       <c r="K28" t="s">
-        <v>236</v>
+        <v>263</v>
       </c>
       <c r="L28" t="s">
-        <v>237</v>
+        <v>264</v>
       </c>
       <c r="M28" t="n">
         <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="O28" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P28" t="n">
         <v>4</v>
@@ -3964,56 +4288,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>238</v>
+        <v>265</v>
       </c>
       <c r="X28" t="s">
-        <v>239</v>
+        <v>266</v>
       </c>
       <c r="Y28" t="s">
-        <v>240</v>
+        <v>267</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>65650</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>164659</v>
+      </c>
+      <c r="C29" t="s">
+        <v>268</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>241</v>
+        <v>269</v>
       </c>
       <c r="G29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>242</v>
+        <v>270</v>
       </c>
       <c r="J29" t="s">
-        <v>243</v>
+        <v>271</v>
       </c>
       <c r="K29" t="s">
-        <v>244</v>
+        <v>272</v>
       </c>
       <c r="L29" t="s">
-        <v>245</v>
+        <v>273</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="O29" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P29" t="n">
         <v>5</v>
@@ -4035,56 +4363,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>246</v>
+        <v>274</v>
       </c>
       <c r="X29" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="Y29" t="s">
-        <v>248</v>
+        <v>276</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>65650</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>164660</v>
+      </c>
+      <c r="C30" t="s">
+        <v>277</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>249</v>
+        <v>278</v>
       </c>
       <c r="G30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>250</v>
+        <v>279</v>
       </c>
       <c r="J30" t="s">
-        <v>251</v>
+        <v>280</v>
       </c>
       <c r="K30" t="s">
-        <v>252</v>
+        <v>281</v>
       </c>
       <c r="L30" t="s">
-        <v>253</v>
+        <v>282</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="O30" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P30" t="n">
         <v>5</v>
@@ -4106,56 +4438,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>246</v>
+        <v>274</v>
       </c>
       <c r="X30" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="Y30" t="s">
-        <v>254</v>
+        <v>283</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>65650</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>164661</v>
+      </c>
+      <c r="C31" t="s">
+        <v>284</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>255</v>
+        <v>285</v>
       </c>
       <c r="G31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>256</v>
+        <v>286</v>
       </c>
       <c r="J31" t="s">
-        <v>257</v>
+        <v>287</v>
       </c>
       <c r="K31" t="s">
-        <v>244</v>
+        <v>272</v>
       </c>
       <c r="L31" t="s">
-        <v>258</v>
+        <v>288</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="O31" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P31" t="n">
         <v>5</v>
@@ -4177,56 +4513,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>246</v>
+        <v>274</v>
       </c>
       <c r="X31" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="Y31" t="s">
-        <v>259</v>
+        <v>289</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>65650</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>19549</v>
+      </c>
+      <c r="C32" t="s">
+        <v>290</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>260</v>
+        <v>291</v>
       </c>
       <c r="G32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>261</v>
+        <v>292</v>
       </c>
       <c r="J32" t="s">
-        <v>257</v>
+        <v>287</v>
       </c>
       <c r="K32" t="s">
-        <v>262</v>
+        <v>293</v>
       </c>
       <c r="L32" t="s">
-        <v>263</v>
+        <v>294</v>
       </c>
       <c r="M32" t="n">
         <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="O32" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P32" t="n">
         <v>4</v>
@@ -4248,54 +4588,58 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>246</v>
+        <v>274</v>
       </c>
       <c r="X32" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="Y32" t="s">
-        <v>264</v>
+        <v>295</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>65650</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>9744</v>
+      </c>
+      <c r="C33" t="s">
+        <v>296</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>265</v>
+        <v>297</v>
       </c>
       <c r="G33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>266</v>
+        <v>298</v>
       </c>
       <c r="J33" t="s">
-        <v>267</v>
+        <v>299</v>
       </c>
       <c r="K33" t="s"/>
       <c r="L33" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="M33" t="n">
         <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="O33" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P33" t="n">
         <v>4</v>
@@ -4317,56 +4661,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>268</v>
+        <v>300</v>
       </c>
       <c r="X33" t="s">
-        <v>269</v>
+        <v>301</v>
       </c>
       <c r="Y33" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>65650</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>164662</v>
+      </c>
+      <c r="C34" t="s">
+        <v>302</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>270</v>
+        <v>303</v>
       </c>
       <c r="G34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>271</v>
+        <v>304</v>
       </c>
       <c r="J34" t="s">
-        <v>272</v>
+        <v>305</v>
       </c>
       <c r="K34" t="s">
-        <v>273</v>
+        <v>306</v>
       </c>
       <c r="L34" t="s">
-        <v>274</v>
+        <v>307</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>275</v>
+        <v>308</v>
       </c>
       <c r="O34" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P34" t="n">
         <v>5</v>
@@ -4388,56 +4736,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>246</v>
+        <v>274</v>
       </c>
       <c r="X34" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="Y34" t="s">
-        <v>276</v>
+        <v>309</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>65650</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>164663</v>
+      </c>
+      <c r="C35" t="s">
+        <v>310</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>277</v>
+        <v>311</v>
       </c>
       <c r="G35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>278</v>
+        <v>312</v>
       </c>
       <c r="J35" t="s">
-        <v>279</v>
+        <v>313</v>
       </c>
       <c r="K35" t="s">
-        <v>280</v>
+        <v>314</v>
       </c>
       <c r="L35" t="s">
-        <v>281</v>
+        <v>315</v>
       </c>
       <c r="M35" t="n">
         <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>275</v>
+        <v>308</v>
       </c>
       <c r="O35" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P35" t="n">
         <v>5</v>
@@ -4461,48 +4813,52 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>281</v>
+        <v>315</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>65650</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>164664</v>
+      </c>
+      <c r="C36" t="s">
+        <v>316</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>282</v>
+        <v>317</v>
       </c>
       <c r="G36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>283</v>
+        <v>318</v>
       </c>
       <c r="J36" t="s">
-        <v>284</v>
+        <v>319</v>
       </c>
       <c r="K36" t="s"/>
       <c r="L36" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>275</v>
+        <v>308</v>
       </c>
       <c r="O36" t="s">
-        <v>285</v>
+        <v>320</v>
       </c>
       <c r="P36" t="n">
         <v>5</v>
@@ -4524,54 +4880,58 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>286</v>
+        <v>321</v>
       </c>
       <c r="X36" t="s">
-        <v>287</v>
+        <v>322</v>
       </c>
       <c r="Y36" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>65650</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>164665</v>
+      </c>
+      <c r="C37" t="s">
+        <v>323</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>288</v>
+        <v>324</v>
       </c>
       <c r="G37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>289</v>
+        <v>325</v>
       </c>
       <c r="J37" t="s">
-        <v>290</v>
+        <v>326</v>
       </c>
       <c r="K37" t="s"/>
       <c r="L37" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>275</v>
+        <v>308</v>
       </c>
       <c r="O37" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P37" t="n">
         <v>5</v>
@@ -4593,56 +4953,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>291</v>
+        <v>327</v>
       </c>
       <c r="X37" t="s">
-        <v>292</v>
+        <v>328</v>
       </c>
       <c r="Y37" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>65650</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>164666</v>
+      </c>
+      <c r="C38" t="s">
+        <v>329</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>293</v>
+        <v>330</v>
       </c>
       <c r="G38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>294</v>
+        <v>331</v>
       </c>
       <c r="J38" t="s">
-        <v>290</v>
+        <v>326</v>
       </c>
       <c r="K38" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
       <c r="L38" t="s">
-        <v>296</v>
+        <v>333</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>275</v>
+        <v>308</v>
       </c>
       <c r="O38" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P38" t="n">
         <v>5</v>
@@ -4664,56 +5028,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>297</v>
+        <v>334</v>
       </c>
       <c r="X38" t="s">
-        <v>298</v>
+        <v>335</v>
       </c>
       <c r="Y38" t="s">
-        <v>299</v>
+        <v>336</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>65650</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>64856</v>
+      </c>
+      <c r="C39" t="s">
+        <v>337</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>300</v>
+        <v>338</v>
       </c>
       <c r="G39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>301</v>
+        <v>339</v>
       </c>
       <c r="J39" t="s">
-        <v>302</v>
+        <v>340</v>
       </c>
       <c r="K39" t="s">
-        <v>303</v>
+        <v>341</v>
       </c>
       <c r="L39" t="s">
-        <v>304</v>
+        <v>342</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>275</v>
+        <v>308</v>
       </c>
       <c r="O39" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
@@ -4725,54 +5093,58 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>305</v>
+        <v>343</v>
       </c>
       <c r="X39" t="s">
-        <v>306</v>
+        <v>344</v>
       </c>
       <c r="Y39" t="s">
-        <v>307</v>
+        <v>345</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>65650</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>164667</v>
+      </c>
+      <c r="C40" t="s">
+        <v>346</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>308</v>
+        <v>347</v>
       </c>
       <c r="G40" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>309</v>
+        <v>348</v>
       </c>
       <c r="J40" t="s">
-        <v>310</v>
+        <v>349</v>
       </c>
       <c r="K40" t="s"/>
       <c r="L40" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>275</v>
+        <v>308</v>
       </c>
       <c r="O40" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P40" t="n">
         <v>5</v>
@@ -4794,56 +5166,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>311</v>
+        <v>350</v>
       </c>
       <c r="X40" t="s">
-        <v>312</v>
+        <v>351</v>
       </c>
       <c r="Y40" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>65650</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>164668</v>
+      </c>
+      <c r="C41" t="s">
+        <v>352</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>313</v>
+        <v>353</v>
       </c>
       <c r="G41" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>314</v>
+        <v>354</v>
       </c>
       <c r="J41" t="s">
-        <v>315</v>
+        <v>355</v>
       </c>
       <c r="K41" t="s">
-        <v>316</v>
+        <v>356</v>
       </c>
       <c r="L41" t="s">
-        <v>317</v>
+        <v>357</v>
       </c>
       <c r="M41" t="n">
         <v>4</v>
       </c>
       <c r="N41" t="s">
-        <v>275</v>
+        <v>308</v>
       </c>
       <c r="O41" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
@@ -4855,56 +5231,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>311</v>
+        <v>350</v>
       </c>
       <c r="X41" t="s">
-        <v>312</v>
+        <v>351</v>
       </c>
       <c r="Y41" t="s">
-        <v>318</v>
+        <v>358</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>65650</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>26602</v>
+      </c>
+      <c r="C42" t="s">
+        <v>359</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>319</v>
+        <v>360</v>
       </c>
       <c r="G42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>320</v>
+        <v>361</v>
       </c>
       <c r="J42" t="s">
-        <v>321</v>
+        <v>362</v>
       </c>
       <c r="K42" t="s">
-        <v>322</v>
+        <v>363</v>
       </c>
       <c r="L42" t="s">
-        <v>323</v>
+        <v>364</v>
       </c>
       <c r="M42" t="n">
         <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>324</v>
+        <v>365</v>
       </c>
       <c r="O42" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P42" t="n">
         <v>5</v>
@@ -4926,41 +5306,45 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>325</v>
+        <v>366</v>
       </c>
       <c r="X42" t="s">
-        <v>326</v>
+        <v>367</v>
       </c>
       <c r="Y42" t="s">
-        <v>327</v>
+        <v>368</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>65650</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>164669</v>
+      </c>
+      <c r="C43" t="s">
+        <v>369</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>328</v>
+        <v>370</v>
       </c>
       <c r="G43" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>329</v>
+        <v>371</v>
       </c>
       <c r="J43" t="s">
-        <v>330</v>
+        <v>372</v>
       </c>
       <c r="K43" t="s"/>
       <c r="L43" t="s"/>
@@ -4968,10 +5352,10 @@
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>324</v>
+        <v>365</v>
       </c>
       <c r="O43" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P43" t="n">
         <v>5</v>
@@ -4992,51 +5376,52 @@
       <c r="V43" t="n">
         <v>0</v>
       </c>
-      <c r="W43" t="s"/>
-      <c r="X43" t="s"/>
-      <c r="Y43" t="s"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>65650</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>13283</v>
+      </c>
+      <c r="C44" t="s">
+        <v>373</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>331</v>
+        <v>374</v>
       </c>
       <c r="G44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>332</v>
+        <v>375</v>
       </c>
       <c r="J44" t="s">
-        <v>333</v>
+        <v>376</v>
       </c>
       <c r="K44" t="s">
-        <v>334</v>
+        <v>377</v>
       </c>
       <c r="L44" t="s">
-        <v>335</v>
+        <v>378</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>324</v>
+        <v>365</v>
       </c>
       <c r="O44" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="s"/>
@@ -5052,56 +5437,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>336</v>
+        <v>379</v>
       </c>
       <c r="X44" t="s">
-        <v>337</v>
+        <v>380</v>
       </c>
       <c r="Y44" t="s">
-        <v>338</v>
+        <v>381</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>65650</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>2466</v>
+      </c>
+      <c r="C45" t="s">
+        <v>382</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>339</v>
+        <v>383</v>
       </c>
       <c r="G45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>340</v>
+        <v>384</v>
       </c>
       <c r="J45" t="s">
-        <v>341</v>
+        <v>385</v>
       </c>
       <c r="K45" t="s">
-        <v>342</v>
+        <v>386</v>
       </c>
       <c r="L45" t="s">
-        <v>343</v>
+        <v>387</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>324</v>
+        <v>365</v>
       </c>
       <c r="O45" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P45" t="n">
         <v>5</v>
@@ -5123,56 +5512,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>344</v>
+        <v>388</v>
       </c>
       <c r="X45" t="s">
-        <v>345</v>
+        <v>389</v>
       </c>
       <c r="Y45" t="s">
-        <v>346</v>
+        <v>390</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>65650</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>164670</v>
+      </c>
+      <c r="C46" t="s">
+        <v>391</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>347</v>
+        <v>392</v>
       </c>
       <c r="G46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>348</v>
+        <v>393</v>
       </c>
       <c r="J46" t="s">
-        <v>349</v>
+        <v>394</v>
       </c>
       <c r="K46" t="s">
-        <v>350</v>
+        <v>395</v>
       </c>
       <c r="L46" t="s">
-        <v>351</v>
+        <v>396</v>
       </c>
       <c r="M46" t="n">
         <v>4</v>
       </c>
       <c r="N46" t="s">
-        <v>324</v>
+        <v>365</v>
       </c>
       <c r="O46" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P46" t="n">
         <v>5</v>
@@ -5194,56 +5587,60 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>344</v>
+        <v>388</v>
       </c>
       <c r="X46" t="s">
-        <v>345</v>
+        <v>389</v>
       </c>
       <c r="Y46" t="s">
-        <v>352</v>
+        <v>397</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>65650</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>164671</v>
+      </c>
+      <c r="C47" t="s">
+        <v>398</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>353</v>
+        <v>399</v>
       </c>
       <c r="G47" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>354</v>
+        <v>400</v>
       </c>
       <c r="J47" t="s">
-        <v>355</v>
+        <v>401</v>
       </c>
       <c r="K47" t="s">
-        <v>356</v>
+        <v>402</v>
       </c>
       <c r="L47" t="s">
-        <v>357</v>
+        <v>403</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>358</v>
+        <v>404</v>
       </c>
       <c r="O47" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P47" t="n">
         <v>5</v>
@@ -5265,56 +5662,60 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>359</v>
+        <v>405</v>
       </c>
       <c r="X47" t="s">
-        <v>360</v>
+        <v>406</v>
       </c>
       <c r="Y47" t="s">
-        <v>361</v>
+        <v>407</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>65650</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>37041</v>
+      </c>
+      <c r="C48" t="s">
+        <v>408</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>362</v>
+        <v>409</v>
       </c>
       <c r="G48" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>363</v>
+        <v>410</v>
       </c>
       <c r="J48" t="s">
-        <v>364</v>
+        <v>411</v>
       </c>
       <c r="K48" t="s">
-        <v>365</v>
+        <v>412</v>
       </c>
       <c r="L48" t="s">
-        <v>366</v>
+        <v>413</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>367</v>
+        <v>414</v>
       </c>
       <c r="O48" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P48" t="n">
         <v>5</v>
@@ -5336,56 +5737,60 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>368</v>
+        <v>415</v>
       </c>
       <c r="X48" t="s">
-        <v>369</v>
+        <v>416</v>
       </c>
       <c r="Y48" t="s">
-        <v>370</v>
+        <v>417</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>65650</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>164672</v>
+      </c>
+      <c r="C49" t="s">
+        <v>418</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>371</v>
+        <v>419</v>
       </c>
       <c r="G49" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>372</v>
+        <v>420</v>
       </c>
       <c r="J49" t="s">
-        <v>373</v>
+        <v>421</v>
       </c>
       <c r="K49" t="s">
-        <v>244</v>
+        <v>272</v>
       </c>
       <c r="L49" t="s">
-        <v>374</v>
+        <v>422</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>367</v>
+        <v>414</v>
       </c>
       <c r="O49" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P49" t="n">
         <v>5</v>
@@ -5409,50 +5814,54 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>374</v>
+        <v>422</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>65650</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>51908</v>
+      </c>
+      <c r="C50" t="s">
+        <v>57</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>375</v>
+        <v>423</v>
       </c>
       <c r="G50" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>376</v>
+        <v>424</v>
       </c>
       <c r="J50" t="s">
-        <v>377</v>
+        <v>425</v>
       </c>
       <c r="K50" t="s">
-        <v>378</v>
+        <v>426</v>
       </c>
       <c r="L50" t="s">
-        <v>379</v>
+        <v>427</v>
       </c>
       <c r="M50" t="n">
         <v>4</v>
       </c>
       <c r="N50" t="s">
-        <v>367</v>
+        <v>414</v>
       </c>
       <c r="O50" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P50" t="s"/>
       <c r="Q50" t="n">
@@ -5470,56 +5879,60 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>380</v>
+        <v>428</v>
       </c>
       <c r="X50" t="s">
-        <v>381</v>
+        <v>429</v>
       </c>
       <c r="Y50" t="s">
-        <v>382</v>
+        <v>430</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>65650</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>164673</v>
+      </c>
+      <c r="C51" t="s">
+        <v>431</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>383</v>
+        <v>432</v>
       </c>
       <c r="G51" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>384</v>
+        <v>433</v>
       </c>
       <c r="J51" t="s">
-        <v>385</v>
+        <v>434</v>
       </c>
       <c r="K51" t="s">
-        <v>386</v>
+        <v>435</v>
       </c>
       <c r="L51" t="s">
-        <v>387</v>
+        <v>436</v>
       </c>
       <c r="M51" t="n">
         <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>367</v>
+        <v>414</v>
       </c>
       <c r="O51" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P51" t="n">
         <v>5</v>
@@ -5541,56 +5954,60 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>388</v>
+        <v>437</v>
       </c>
       <c r="X51" t="s">
-        <v>389</v>
+        <v>438</v>
       </c>
       <c r="Y51" t="s">
-        <v>390</v>
+        <v>439</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>65650</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>164674</v>
+      </c>
+      <c r="C52" t="s">
+        <v>440</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>391</v>
+        <v>441</v>
       </c>
       <c r="G52" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>392</v>
+        <v>442</v>
       </c>
       <c r="J52" t="s">
-        <v>393</v>
+        <v>443</v>
       </c>
       <c r="K52" t="s">
-        <v>394</v>
+        <v>444</v>
       </c>
       <c r="L52" t="s">
-        <v>395</v>
+        <v>445</v>
       </c>
       <c r="M52" t="n">
         <v>4</v>
       </c>
       <c r="N52" t="s">
-        <v>358</v>
+        <v>404</v>
       </c>
       <c r="O52" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P52" t="n">
         <v>5</v>
@@ -5612,56 +6029,60 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>396</v>
+        <v>446</v>
       </c>
       <c r="X52" t="s">
-        <v>397</v>
+        <v>447</v>
       </c>
       <c r="Y52" t="s">
-        <v>398</v>
+        <v>448</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>65650</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>164643</v>
+      </c>
+      <c r="C53" t="s">
+        <v>109</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>399</v>
+        <v>449</v>
       </c>
       <c r="G53" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="J53" t="s">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="K53" t="s">
-        <v>402</v>
+        <v>452</v>
       </c>
       <c r="L53" t="s">
-        <v>403</v>
+        <v>453</v>
       </c>
       <c r="M53" t="n">
         <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>358</v>
+        <v>404</v>
       </c>
       <c r="O53" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P53" t="n">
         <v>5</v>
@@ -5683,56 +6104,60 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>404</v>
+        <v>454</v>
       </c>
       <c r="X53" t="s">
-        <v>405</v>
+        <v>455</v>
       </c>
       <c r="Y53" t="s">
-        <v>406</v>
+        <v>456</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>65650</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>4147</v>
+      </c>
+      <c r="C54" t="s">
+        <v>457</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>407</v>
+        <v>458</v>
       </c>
       <c r="G54" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>408</v>
+        <v>459</v>
       </c>
       <c r="J54" t="s">
-        <v>409</v>
+        <v>460</v>
       </c>
       <c r="K54" t="s">
-        <v>410</v>
+        <v>461</v>
       </c>
       <c r="L54" t="s">
-        <v>411</v>
+        <v>462</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>358</v>
+        <v>404</v>
       </c>
       <c r="O54" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P54" t="n">
         <v>5</v>
@@ -5754,56 +6179,60 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>412</v>
+        <v>463</v>
       </c>
       <c r="X54" t="s">
-        <v>413</v>
+        <v>464</v>
       </c>
       <c r="Y54" t="s">
-        <v>414</v>
+        <v>465</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>65650</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>164675</v>
+      </c>
+      <c r="C55" t="s">
+        <v>466</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>415</v>
+        <v>467</v>
       </c>
       <c r="G55" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>416</v>
+        <v>468</v>
       </c>
       <c r="J55" t="s">
-        <v>417</v>
+        <v>469</v>
       </c>
       <c r="K55" t="s">
-        <v>418</v>
+        <v>470</v>
       </c>
       <c r="L55" t="s">
-        <v>419</v>
+        <v>471</v>
       </c>
       <c r="M55" t="n">
         <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>358</v>
+        <v>404</v>
       </c>
       <c r="O55" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P55" t="s"/>
       <c r="Q55" t="s"/>
@@ -5815,54 +6244,58 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>412</v>
+        <v>463</v>
       </c>
       <c r="X55" t="s">
-        <v>413</v>
+        <v>464</v>
       </c>
       <c r="Y55" t="s">
-        <v>420</v>
+        <v>472</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>65650</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>164676</v>
+      </c>
+      <c r="C56" t="s">
+        <v>473</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>421</v>
+        <v>474</v>
       </c>
       <c r="G56" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>422</v>
+        <v>475</v>
       </c>
       <c r="J56" t="s">
-        <v>423</v>
+        <v>476</v>
       </c>
       <c r="K56" t="s"/>
       <c r="L56" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="M56" t="n">
         <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>358</v>
+        <v>404</v>
       </c>
       <c r="O56" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P56" t="n">
         <v>5</v>
@@ -5884,56 +6317,60 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>424</v>
+        <v>477</v>
       </c>
       <c r="X56" t="s">
-        <v>425</v>
+        <v>478</v>
       </c>
       <c r="Y56" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>65650</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>164677</v>
+      </c>
+      <c r="C57" t="s">
+        <v>479</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>426</v>
+        <v>480</v>
       </c>
       <c r="G57" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I57" t="s">
-        <v>427</v>
+        <v>481</v>
       </c>
       <c r="J57" t="s">
-        <v>428</v>
+        <v>482</v>
       </c>
       <c r="K57" t="s">
-        <v>429</v>
+        <v>483</v>
       </c>
       <c r="L57" t="s">
-        <v>430</v>
+        <v>484</v>
       </c>
       <c r="M57" t="n">
         <v>5</v>
       </c>
       <c r="N57" t="s">
-        <v>431</v>
+        <v>485</v>
       </c>
       <c r="O57" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="P57" t="n">
         <v>5</v>
@@ -5955,54 +6392,58 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>432</v>
+        <v>486</v>
       </c>
       <c r="X57" t="s">
-        <v>433</v>
+        <v>487</v>
       </c>
       <c r="Y57" t="s">
-        <v>434</v>
+        <v>488</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>65650</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>164678</v>
+      </c>
+      <c r="C58" t="s">
+        <v>489</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>435</v>
+        <v>490</v>
       </c>
       <c r="G58" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I58" t="s">
-        <v>436</v>
+        <v>491</v>
       </c>
       <c r="J58" t="s">
-        <v>428</v>
+        <v>482</v>
       </c>
       <c r="K58" t="s"/>
       <c r="L58" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
       <c r="N58" t="s">
-        <v>431</v>
+        <v>485</v>
       </c>
       <c r="O58" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P58" t="n">
         <v>1</v>
@@ -6024,56 +6465,60 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>437</v>
+        <v>492</v>
       </c>
       <c r="X58" t="s">
-        <v>438</v>
+        <v>493</v>
       </c>
       <c r="Y58" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>65650</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>164679</v>
+      </c>
+      <c r="C59" t="s">
+        <v>494</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>439</v>
+        <v>495</v>
       </c>
       <c r="G59" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I59" t="s">
-        <v>440</v>
+        <v>496</v>
       </c>
       <c r="J59" t="s">
-        <v>428</v>
+        <v>482</v>
       </c>
       <c r="K59" t="s">
-        <v>441</v>
+        <v>497</v>
       </c>
       <c r="L59" t="s">
-        <v>442</v>
+        <v>498</v>
       </c>
       <c r="M59" t="n">
         <v>4</v>
       </c>
       <c r="N59" t="s">
-        <v>431</v>
+        <v>485</v>
       </c>
       <c r="O59" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P59" t="n">
         <v>5</v>
@@ -6097,50 +6542,54 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>442</v>
+        <v>498</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>65650</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>35768</v>
+      </c>
+      <c r="C60" t="s">
+        <v>499</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F60" t="s">
-        <v>443</v>
+        <v>500</v>
       </c>
       <c r="G60" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I60" t="s">
-        <v>444</v>
+        <v>501</v>
       </c>
       <c r="J60" t="s">
-        <v>445</v>
+        <v>502</v>
       </c>
       <c r="K60" t="s">
-        <v>446</v>
+        <v>503</v>
       </c>
       <c r="L60" t="s">
-        <v>447</v>
+        <v>504</v>
       </c>
       <c r="M60" t="n">
         <v>3</v>
       </c>
       <c r="N60" t="s">
-        <v>431</v>
+        <v>485</v>
       </c>
       <c r="O60" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P60" t="n">
         <v>3</v>
@@ -6162,56 +6611,60 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>448</v>
+        <v>505</v>
       </c>
       <c r="X60" t="s">
-        <v>449</v>
+        <v>506</v>
       </c>
       <c r="Y60" t="s">
-        <v>450</v>
+        <v>507</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>65650</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>26579</v>
+      </c>
+      <c r="C61" t="s">
+        <v>508</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F61" t="s">
-        <v>451</v>
+        <v>509</v>
       </c>
       <c r="G61" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I61" t="s">
-        <v>452</v>
+        <v>510</v>
       </c>
       <c r="J61" t="s">
-        <v>453</v>
+        <v>511</v>
       </c>
       <c r="K61" t="s">
-        <v>454</v>
+        <v>512</v>
       </c>
       <c r="L61" t="s">
-        <v>455</v>
+        <v>513</v>
       </c>
       <c r="M61" t="n">
         <v>4</v>
       </c>
       <c r="N61" t="s">
-        <v>456</v>
+        <v>514</v>
       </c>
       <c r="O61" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P61" t="n">
         <v>4</v>
@@ -6235,48 +6688,52 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>455</v>
+        <v>513</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>65650</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>164680</v>
+      </c>
+      <c r="C62" t="s">
+        <v>515</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F62" t="s">
-        <v>457</v>
+        <v>516</v>
       </c>
       <c r="G62" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I62" t="s">
-        <v>458</v>
+        <v>517</v>
       </c>
       <c r="J62" t="s">
-        <v>459</v>
+        <v>518</v>
       </c>
       <c r="K62" t="s"/>
       <c r="L62" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="M62" t="n">
         <v>4</v>
       </c>
       <c r="N62" t="s">
-        <v>456</v>
+        <v>514</v>
       </c>
       <c r="O62" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P62" t="n">
         <v>5</v>
@@ -6300,50 +6757,54 @@
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>65650</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>24424</v>
+      </c>
+      <c r="C63" t="s">
+        <v>519</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F63" t="s">
-        <v>460</v>
+        <v>520</v>
       </c>
       <c r="G63" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I63" t="s">
-        <v>461</v>
+        <v>521</v>
       </c>
       <c r="J63" t="s">
-        <v>462</v>
+        <v>522</v>
       </c>
       <c r="K63" t="s">
-        <v>463</v>
+        <v>523</v>
       </c>
       <c r="L63" t="s">
-        <v>464</v>
+        <v>524</v>
       </c>
       <c r="M63" t="n">
         <v>4</v>
       </c>
       <c r="N63" t="s">
-        <v>456</v>
+        <v>514</v>
       </c>
       <c r="O63" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P63" t="n">
         <v>5</v>
@@ -6367,50 +6828,54 @@
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>464</v>
+        <v>524</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>65650</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>164681</v>
+      </c>
+      <c r="C64" t="s">
+        <v>525</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F64" t="s">
-        <v>465</v>
+        <v>526</v>
       </c>
       <c r="G64" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I64" t="s">
-        <v>466</v>
+        <v>527</v>
       </c>
       <c r="J64" t="s">
-        <v>467</v>
+        <v>528</v>
       </c>
       <c r="K64" t="s">
-        <v>468</v>
+        <v>529</v>
       </c>
       <c r="L64" t="s">
-        <v>469</v>
+        <v>530</v>
       </c>
       <c r="M64" t="n">
         <v>5</v>
       </c>
       <c r="N64" t="s">
-        <v>456</v>
+        <v>514</v>
       </c>
       <c r="O64" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P64" t="n">
         <v>4</v>
@@ -6434,50 +6899,54 @@
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>469</v>
+        <v>530</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>65650</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>44025</v>
+      </c>
+      <c r="C65" t="s">
+        <v>531</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F65" t="s">
-        <v>470</v>
+        <v>532</v>
       </c>
       <c r="G65" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I65" t="s">
-        <v>471</v>
+        <v>533</v>
       </c>
       <c r="J65" t="s">
-        <v>472</v>
+        <v>534</v>
       </c>
       <c r="K65" t="s">
-        <v>473</v>
+        <v>535</v>
       </c>
       <c r="L65" t="s">
-        <v>474</v>
+        <v>536</v>
       </c>
       <c r="M65" t="n">
         <v>5</v>
       </c>
       <c r="N65" t="s">
-        <v>456</v>
+        <v>514</v>
       </c>
       <c r="O65" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P65" t="n">
         <v>5</v>
@@ -6501,50 +6970,54 @@
       <c r="W65" t="s"/>
       <c r="X65" t="s"/>
       <c r="Y65" t="s">
-        <v>474</v>
+        <v>536</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>65650</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>5432</v>
+      </c>
+      <c r="C66" t="s">
+        <v>537</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F66" t="s">
-        <v>475</v>
+        <v>538</v>
       </c>
       <c r="G66" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I66" t="s">
-        <v>476</v>
+        <v>539</v>
       </c>
       <c r="J66" t="s">
-        <v>477</v>
+        <v>540</v>
       </c>
       <c r="K66" t="s">
-        <v>478</v>
+        <v>541</v>
       </c>
       <c r="L66" t="s">
-        <v>479</v>
+        <v>542</v>
       </c>
       <c r="M66" t="n">
         <v>4</v>
       </c>
       <c r="N66" t="s">
-        <v>456</v>
+        <v>514</v>
       </c>
       <c r="O66" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P66" t="n">
         <v>4</v>
@@ -6568,50 +7041,54 @@
       <c r="W66" t="s"/>
       <c r="X66" t="s"/>
       <c r="Y66" t="s">
-        <v>479</v>
+        <v>542</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>65650</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>164682</v>
+      </c>
+      <c r="C67" t="s">
+        <v>543</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F67" t="s">
-        <v>480</v>
+        <v>544</v>
       </c>
       <c r="G67" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I67" t="s">
-        <v>481</v>
+        <v>545</v>
       </c>
       <c r="J67" t="s">
-        <v>482</v>
+        <v>546</v>
       </c>
       <c r="K67" t="s">
-        <v>483</v>
+        <v>547</v>
       </c>
       <c r="L67" t="s">
-        <v>484</v>
+        <v>548</v>
       </c>
       <c r="M67" t="n">
         <v>3</v>
       </c>
       <c r="N67" t="s">
-        <v>456</v>
+        <v>514</v>
       </c>
       <c r="O67" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P67" t="n">
         <v>3</v>
@@ -6633,41 +7110,45 @@
         <v>0</v>
       </c>
       <c r="W67" t="s">
-        <v>437</v>
+        <v>492</v>
       </c>
       <c r="X67" t="s">
-        <v>438</v>
+        <v>493</v>
       </c>
       <c r="Y67" t="s">
-        <v>485</v>
+        <v>549</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>65650</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>164683</v>
+      </c>
+      <c r="C68" t="s">
+        <v>550</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F68" t="s">
-        <v>486</v>
+        <v>551</v>
       </c>
       <c r="G68" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I68" t="s">
-        <v>487</v>
+        <v>552</v>
       </c>
       <c r="J68" t="s">
-        <v>488</v>
+        <v>553</v>
       </c>
       <c r="K68" t="s"/>
       <c r="L68" t="s"/>
@@ -6675,10 +7156,10 @@
         <v>5</v>
       </c>
       <c r="N68" t="s">
-        <v>489</v>
+        <v>554</v>
       </c>
       <c r="O68" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P68" t="n">
         <v>5</v>
@@ -6699,51 +7180,52 @@
       <c r="V68" t="n">
         <v>0</v>
       </c>
-      <c r="W68" t="s"/>
-      <c r="X68" t="s"/>
-      <c r="Y68" t="s"/>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>65650</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>164684</v>
+      </c>
+      <c r="C69" t="s">
+        <v>555</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F69" t="s">
-        <v>490</v>
+        <v>556</v>
       </c>
       <c r="G69" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I69" t="s">
-        <v>491</v>
+        <v>557</v>
       </c>
       <c r="J69" t="s">
-        <v>492</v>
+        <v>558</v>
       </c>
       <c r="K69" t="s">
-        <v>493</v>
+        <v>559</v>
       </c>
       <c r="L69" t="s">
-        <v>494</v>
+        <v>560</v>
       </c>
       <c r="M69" t="n">
         <v>4</v>
       </c>
       <c r="N69" t="s">
-        <v>489</v>
+        <v>554</v>
       </c>
       <c r="O69" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P69" t="n">
         <v>4</v>
@@ -6767,50 +7249,54 @@
       <c r="W69" t="s"/>
       <c r="X69" t="s"/>
       <c r="Y69" t="s">
-        <v>494</v>
+        <v>560</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>65650</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>164685</v>
+      </c>
+      <c r="C70" t="s">
+        <v>561</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F70" t="s">
-        <v>495</v>
+        <v>562</v>
       </c>
       <c r="G70" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I70" t="s">
-        <v>496</v>
+        <v>563</v>
       </c>
       <c r="J70" t="s">
-        <v>492</v>
+        <v>558</v>
       </c>
       <c r="K70" t="s">
-        <v>497</v>
+        <v>564</v>
       </c>
       <c r="L70" t="s">
-        <v>498</v>
+        <v>565</v>
       </c>
       <c r="M70" t="n">
         <v>4</v>
       </c>
       <c r="N70" t="s">
-        <v>489</v>
+        <v>554</v>
       </c>
       <c r="O70" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P70" t="n">
         <v>4</v>
@@ -6834,50 +7320,54 @@
       <c r="W70" t="s"/>
       <c r="X70" t="s"/>
       <c r="Y70" t="s">
-        <v>498</v>
+        <v>565</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>65650</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>164686</v>
+      </c>
+      <c r="C71" t="s">
+        <v>566</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F71" t="s">
-        <v>499</v>
+        <v>567</v>
       </c>
       <c r="G71" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I71" t="s">
-        <v>500</v>
+        <v>568</v>
       </c>
       <c r="J71" t="s">
-        <v>501</v>
+        <v>569</v>
       </c>
       <c r="K71" t="s">
-        <v>502</v>
+        <v>570</v>
       </c>
       <c r="L71" t="s">
-        <v>503</v>
+        <v>571</v>
       </c>
       <c r="M71" t="n">
         <v>4</v>
       </c>
       <c r="N71" t="s">
-        <v>489</v>
+        <v>554</v>
       </c>
       <c r="O71" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P71" t="n">
         <v>4</v>
@@ -6901,50 +7391,54 @@
       <c r="W71" t="s"/>
       <c r="X71" t="s"/>
       <c r="Y71" t="s">
-        <v>503</v>
+        <v>571</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>65650</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>164687</v>
+      </c>
+      <c r="C72" t="s">
+        <v>572</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F72" t="s">
-        <v>504</v>
+        <v>573</v>
       </c>
       <c r="G72" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I72" t="s">
-        <v>505</v>
+        <v>574</v>
       </c>
       <c r="J72" t="s">
-        <v>506</v>
+        <v>575</v>
       </c>
       <c r="K72" t="s">
-        <v>507</v>
+        <v>576</v>
       </c>
       <c r="L72" t="s">
-        <v>508</v>
+        <v>577</v>
       </c>
       <c r="M72" t="n">
         <v>5</v>
       </c>
       <c r="N72" t="s">
-        <v>509</v>
+        <v>578</v>
       </c>
       <c r="O72" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P72" t="s"/>
       <c r="Q72" t="s"/>
@@ -6958,50 +7452,54 @@
       <c r="W72" t="s"/>
       <c r="X72" t="s"/>
       <c r="Y72" t="s">
-        <v>508</v>
+        <v>577</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>65650</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>5523</v>
+      </c>
+      <c r="C73" t="s">
+        <v>579</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F73" t="s">
-        <v>510</v>
+        <v>580</v>
       </c>
       <c r="G73" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I73" t="s">
-        <v>511</v>
+        <v>581</v>
       </c>
       <c r="J73" t="s">
-        <v>506</v>
+        <v>575</v>
       </c>
       <c r="K73" t="s">
-        <v>512</v>
+        <v>582</v>
       </c>
       <c r="L73" t="s">
-        <v>513</v>
+        <v>583</v>
       </c>
       <c r="M73" t="n">
         <v>3</v>
       </c>
       <c r="N73" t="s">
-        <v>509</v>
+        <v>578</v>
       </c>
       <c r="O73" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P73" t="n">
         <v>2</v>
@@ -7025,50 +7523,54 @@
       <c r="W73" t="s"/>
       <c r="X73" t="s"/>
       <c r="Y73" t="s">
-        <v>513</v>
+        <v>583</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>65650</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>164688</v>
+      </c>
+      <c r="C74" t="s">
+        <v>584</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F74" t="s">
-        <v>514</v>
+        <v>585</v>
       </c>
       <c r="G74" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I74" t="s">
-        <v>515</v>
+        <v>586</v>
       </c>
       <c r="J74" t="s">
-        <v>516</v>
+        <v>587</v>
       </c>
       <c r="K74" t="s">
-        <v>517</v>
+        <v>588</v>
       </c>
       <c r="L74" t="s">
-        <v>518</v>
+        <v>589</v>
       </c>
       <c r="M74" t="n">
         <v>5</v>
       </c>
       <c r="N74" t="s">
-        <v>509</v>
+        <v>578</v>
       </c>
       <c r="O74" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P74" t="s"/>
       <c r="Q74" t="s"/>
@@ -7082,50 +7584,54 @@
       <c r="W74" t="s"/>
       <c r="X74" t="s"/>
       <c r="Y74" t="s">
-        <v>518</v>
+        <v>589</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>65650</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>164689</v>
+      </c>
+      <c r="C75" t="s">
+        <v>590</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F75" t="s">
-        <v>519</v>
+        <v>591</v>
       </c>
       <c r="G75" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I75" t="s">
-        <v>520</v>
+        <v>592</v>
       </c>
       <c r="J75" t="s">
-        <v>521</v>
+        <v>593</v>
       </c>
       <c r="K75" t="s">
-        <v>522</v>
+        <v>594</v>
       </c>
       <c r="L75" t="s">
-        <v>523</v>
+        <v>595</v>
       </c>
       <c r="M75" t="n">
         <v>5</v>
       </c>
       <c r="N75" t="s">
-        <v>509</v>
+        <v>578</v>
       </c>
       <c r="O75" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="P75" t="s"/>
       <c r="Q75" t="s"/>
@@ -7139,7 +7645,7 @@
       <c r="W75" t="s"/>
       <c r="X75" t="s"/>
       <c r="Y75" t="s">
-        <v>523</v>
+        <v>595</v>
       </c>
     </row>
   </sheetData>
